--- a/newdata.xlsx
+++ b/newdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Financials\financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53829478-C017-43FC-A578-3769208FCA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E915A067-0F85-456E-B4DC-FE576BC08623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="5850" windowWidth="10365" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>2080/81 Q4</t>
+  </si>
+  <si>
+    <t>2081/82 Q1</t>
   </si>
 </sst>
 </file>
@@ -719,7 +722,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -740,6 +743,18 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1098,10 +1113,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL101"/>
+  <dimension ref="A1:AL121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22:K41"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD117" sqref="AD117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12925,8 +12941,2329 @@
         <v>218.04</v>
       </c>
     </row>
+    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C102" s="5">
+        <v>204975657.66999999</v>
+      </c>
+      <c r="D102" s="5">
+        <v>329750209.76099998</v>
+      </c>
+      <c r="E102" s="5">
+        <v>260101916.125</v>
+      </c>
+      <c r="F102" s="5">
+        <v>260648984.43000001</v>
+      </c>
+      <c r="G102" s="5">
+        <v>20479119.555</v>
+      </c>
+      <c r="H102" s="5">
+        <v>18884386.078000002</v>
+      </c>
+      <c r="I102" s="5">
+        <v>37506410.225000001</v>
+      </c>
+      <c r="J102" s="5">
+        <v>5279985.8660000004</v>
+      </c>
+      <c r="K102" s="5">
+        <v>3735940.7859999998</v>
+      </c>
+      <c r="L102" s="5">
+        <v>1544045.08</v>
+      </c>
+      <c r="M102" s="5">
+        <v>340598.304</v>
+      </c>
+      <c r="N102" s="5">
+        <v>330776.73599999998</v>
+      </c>
+      <c r="O102" s="5">
+        <v>264127.47499999998</v>
+      </c>
+      <c r="P102" s="5">
+        <v>2479547.5950000002</v>
+      </c>
+      <c r="Q102" s="5">
+        <v>902260.63199999998</v>
+      </c>
+      <c r="R102" s="5">
+        <v>907720.10699999996</v>
+      </c>
+      <c r="S102" s="5">
+        <v>33137.432333333338</v>
+      </c>
+      <c r="T102" s="5">
+        <v>874582.67466666666</v>
+      </c>
+      <c r="U102" s="5">
+        <v>371464.03</v>
+      </c>
+      <c r="V102" s="5">
+        <v>1200363.4580000003</v>
+      </c>
+      <c r="W102" s="5">
+        <v>134.06500000000005</v>
+      </c>
+      <c r="X102" s="5">
+        <v>298102.82600000035</v>
+      </c>
+      <c r="Y102" s="5">
+        <v>298236.891</v>
+      </c>
+      <c r="Z102" s="5">
+        <v>107313.85400000001</v>
+      </c>
+      <c r="AA102" s="5">
+        <v>190923.03599999999</v>
+      </c>
+      <c r="AB102" s="5">
+        <v>2793111.983</v>
+      </c>
+      <c r="AC102">
+        <v>3.25</v>
+      </c>
+      <c r="AD102" s="11">
+        <v>0.13869999999999999</v>
+      </c>
+      <c r="AE102" s="1">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="AF102" s="10">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="AG102" s="10">
+        <v>2.0465822679252704E-2</v>
+      </c>
+      <c r="AH102" s="10">
+        <v>0.72989999999999999</v>
+      </c>
+      <c r="AI102" s="10">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="AJ102" s="10">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="AK102" s="10">
+        <v>0.35470000000000002</v>
+      </c>
+      <c r="AL102" s="12">
+        <v>237.83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C103" s="5">
+        <v>158078855.57999998</v>
+      </c>
+      <c r="D103" s="5">
+        <v>225127806.208</v>
+      </c>
+      <c r="E103" s="5">
+        <v>191904104.472</v>
+      </c>
+      <c r="F103" s="5">
+        <v>194920962.30599999</v>
+      </c>
+      <c r="G103" s="5">
+        <v>5468662.0949999997</v>
+      </c>
+      <c r="H103" s="5">
+        <v>14200974.005999999</v>
+      </c>
+      <c r="I103" s="5">
+        <v>21815065.778000001</v>
+      </c>
+      <c r="J103" s="5">
+        <v>4567645.7300000004</v>
+      </c>
+      <c r="K103" s="5">
+        <v>3069769.1170000001</v>
+      </c>
+      <c r="L103" s="5">
+        <v>1497876.6129999999</v>
+      </c>
+      <c r="M103" s="5">
+        <v>324171.05</v>
+      </c>
+      <c r="N103" s="5">
+        <v>79862.535000000003</v>
+      </c>
+      <c r="O103" s="5">
+        <v>74006.548999999999</v>
+      </c>
+      <c r="P103" s="5">
+        <v>1975916.747</v>
+      </c>
+      <c r="Q103" s="5">
+        <v>909134.81299999997</v>
+      </c>
+      <c r="R103" s="5">
+        <v>441057.54</v>
+      </c>
+      <c r="S103" s="5">
+        <v>32240.633777777777</v>
+      </c>
+      <c r="T103" s="5">
+        <v>408816.9062222222</v>
+      </c>
+      <c r="U103" s="5">
+        <v>342753.15600000002</v>
+      </c>
+      <c r="V103" s="5">
+        <v>1192106.051</v>
+      </c>
+      <c r="W103" s="5">
+        <v>7194.4660000000003</v>
+      </c>
+      <c r="X103" s="5">
+        <v>282971.23800000001</v>
+      </c>
+      <c r="Y103" s="5">
+        <v>290165.70400000003</v>
+      </c>
+      <c r="Z103" s="5">
+        <v>91944.764999999999</v>
+      </c>
+      <c r="AA103" s="5">
+        <v>198220.93900000001</v>
+      </c>
+      <c r="AB103" s="5">
+        <v>678494.304</v>
+      </c>
+      <c r="AC103">
+        <v>5.58</v>
+      </c>
+      <c r="AD103" s="11">
+        <v>0.1295</v>
+      </c>
+      <c r="AE103" s="1">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="AF103" s="10">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="AG103" s="10">
+        <v>3.6678977061884624E-2</v>
+      </c>
+      <c r="AH103" s="10">
+        <v>0.83</v>
+      </c>
+      <c r="AI103" s="10">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AJ103" s="10">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="AK103" s="10">
+        <v>0.27510000000000001</v>
+      </c>
+      <c r="AL103" s="13">
+        <v>153.62</v>
+      </c>
+    </row>
+    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C104" s="5">
+        <v>195646314</v>
+      </c>
+      <c r="D104" s="5">
+        <v>289041148</v>
+      </c>
+      <c r="E104" s="5">
+        <v>237643891</v>
+      </c>
+      <c r="F104" s="5">
+        <v>239241335</v>
+      </c>
+      <c r="G104" s="5">
+        <v>3603613</v>
+      </c>
+      <c r="H104" s="5">
+        <v>12944694</v>
+      </c>
+      <c r="I104" s="5">
+        <v>28349678</v>
+      </c>
+      <c r="J104" s="5">
+        <v>5381891</v>
+      </c>
+      <c r="K104" s="5">
+        <v>3242833</v>
+      </c>
+      <c r="L104" s="5">
+        <v>2139058</v>
+      </c>
+      <c r="M104" s="5">
+        <v>412355</v>
+      </c>
+      <c r="N104" s="5">
+        <v>120788</v>
+      </c>
+      <c r="O104" s="5">
+        <v>1898</v>
+      </c>
+      <c r="P104" s="5">
+        <v>2674100</v>
+      </c>
+      <c r="Q104" s="5">
+        <v>106704</v>
+      </c>
+      <c r="R104" s="5">
+        <v>673711</v>
+      </c>
+      <c r="S104" s="5">
+        <v>179006.44444444444</v>
+      </c>
+      <c r="T104" s="5">
+        <v>494704.55555555556</v>
+      </c>
+      <c r="U104" s="5">
+        <v>282065</v>
+      </c>
+      <c r="V104" s="5">
+        <v>1718324</v>
+      </c>
+      <c r="W104" s="5">
+        <v>-561</v>
+      </c>
+      <c r="X104" s="5">
+        <v>1611620</v>
+      </c>
+      <c r="Y104" s="5">
+        <v>1611058</v>
+      </c>
+      <c r="Z104" s="5">
+        <v>483317</v>
+      </c>
+      <c r="AA104" s="5">
+        <v>1127740</v>
+      </c>
+      <c r="AB104" s="5">
+        <v>1630927</v>
+      </c>
+      <c r="AC104">
+        <v>34.85</v>
+      </c>
+      <c r="AD104" s="11">
+        <v>0.11849999999999999</v>
+      </c>
+      <c r="AE104" s="1">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="AF104" s="10">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="AG104" s="10">
+        <v>0.16571046484640439</v>
+      </c>
+      <c r="AH104" s="10">
+        <v>0.81369999999999998</v>
+      </c>
+      <c r="AI104" s="10">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AJ104" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AK104" s="10">
+        <v>0.28820000000000001</v>
+      </c>
+      <c r="AL104" s="13">
+        <v>219.01</v>
+      </c>
+    </row>
+    <row r="105" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C105" s="5">
+        <v>410968191</v>
+      </c>
+      <c r="D105" s="5">
+        <v>627251691</v>
+      </c>
+      <c r="E105" s="5">
+        <v>512940584</v>
+      </c>
+      <c r="F105" s="5">
+        <v>529613661</v>
+      </c>
+      <c r="G105" s="5">
+        <v>10685309</v>
+      </c>
+      <c r="H105" s="5">
+        <v>36128770</v>
+      </c>
+      <c r="I105" s="5">
+        <v>62937822</v>
+      </c>
+      <c r="J105" s="5">
+        <v>11659269</v>
+      </c>
+      <c r="K105" s="5">
+        <v>7540297</v>
+      </c>
+      <c r="L105" s="5">
+        <v>4118971</v>
+      </c>
+      <c r="M105" s="5">
+        <v>884460</v>
+      </c>
+      <c r="N105" s="5">
+        <v>169825</v>
+      </c>
+      <c r="O105" s="5">
+        <v>62566</v>
+      </c>
+      <c r="P105" s="5">
+        <v>5235821</v>
+      </c>
+      <c r="Q105" s="5">
+        <v>1071776</v>
+      </c>
+      <c r="R105" s="5">
+        <v>1172255</v>
+      </c>
+      <c r="S105" s="5">
+        <v>238650.22222222222</v>
+      </c>
+      <c r="T105" s="5">
+        <v>933604.77777777775</v>
+      </c>
+      <c r="U105" s="5">
+        <v>844295</v>
+      </c>
+      <c r="V105" s="5">
+        <v>3219271</v>
+      </c>
+      <c r="W105" s="5">
+        <v>358</v>
+      </c>
+      <c r="X105" s="5">
+        <v>2147495</v>
+      </c>
+      <c r="Y105" s="5">
+        <v>2147852</v>
+      </c>
+      <c r="Z105" s="5">
+        <v>635713</v>
+      </c>
+      <c r="AA105" s="5">
+        <v>1512140</v>
+      </c>
+      <c r="AB105" s="5">
+        <v>1916101</v>
+      </c>
+      <c r="AC105">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="AD105" s="11">
+        <v>0.1246</v>
+      </c>
+      <c r="AE105" s="1">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="AF105" s="10">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AG105" s="10">
+        <v>9.8469561965954244E-2</v>
+      </c>
+      <c r="AH105" s="10">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="AI105" s="10">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="AJ105" s="10">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="AK105" s="10">
+        <v>0.34670000000000001</v>
+      </c>
+      <c r="AL105" s="13">
+        <v>174.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C106" s="5">
+        <v>238847860.13600001</v>
+      </c>
+      <c r="D106" s="5">
+        <v>392745369.53399998</v>
+      </c>
+      <c r="E106" s="5">
+        <v>326094191.32800001</v>
+      </c>
+      <c r="F106" s="5">
+        <v>331281587.59299999</v>
+      </c>
+      <c r="G106" s="5">
+        <v>8253990.5029999996</v>
+      </c>
+      <c r="H106" s="5">
+        <v>21656615.631999999</v>
+      </c>
+      <c r="I106" s="5">
+        <v>38912394.384000003</v>
+      </c>
+      <c r="J106" s="5">
+        <v>7581371.5080000004</v>
+      </c>
+      <c r="K106" s="5">
+        <v>5130425.9539999999</v>
+      </c>
+      <c r="L106" s="5">
+        <v>2450945.554</v>
+      </c>
+      <c r="M106" s="5">
+        <v>246828.478</v>
+      </c>
+      <c r="N106" s="5">
+        <v>98317.019</v>
+      </c>
+      <c r="O106" s="5">
+        <v>40504.326999999997</v>
+      </c>
+      <c r="P106" s="5">
+        <v>2836595.378</v>
+      </c>
+      <c r="Q106" s="5">
+        <v>-322501.73700000002</v>
+      </c>
+      <c r="R106" s="5">
+        <v>865389.80299999996</v>
+      </c>
+      <c r="S106" s="5">
+        <v>115387.60655555555</v>
+      </c>
+      <c r="T106" s="5">
+        <v>750002.19644444436</v>
+      </c>
+      <c r="U106" s="5">
+        <v>480632.19999999995</v>
+      </c>
+      <c r="V106" s="5">
+        <v>1490573.3750000002</v>
+      </c>
+      <c r="W106" s="5">
+        <v>-774586.65300000005</v>
+      </c>
+      <c r="X106" s="5">
+        <v>1813075.1120000002</v>
+      </c>
+      <c r="Y106" s="5">
+        <v>1038488.459</v>
+      </c>
+      <c r="Z106" s="5">
+        <v>312055.72699999996</v>
+      </c>
+      <c r="AA106" s="5">
+        <v>726432.73199999996</v>
+      </c>
+      <c r="AB106" s="5">
+        <v>-3484437.0890000002</v>
+      </c>
+      <c r="AC106">
+        <v>13.42</v>
+      </c>
+      <c r="AD106" s="11">
+        <v>0.1221</v>
+      </c>
+      <c r="AE106" s="1">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="AF106" s="10">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="AG106" s="10">
+        <v>7.60942189823786E-2</v>
+      </c>
+      <c r="AH106" s="10">
+        <v>0.74070000000000003</v>
+      </c>
+      <c r="AI106" s="10">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="AJ106" s="10">
+        <v>3.95E-2</v>
+      </c>
+      <c r="AK106" s="10">
+        <v>0.3594</v>
+      </c>
+      <c r="AL106" s="13">
+        <v>179.68</v>
+      </c>
+    </row>
+    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C107" s="5">
+        <v>296226282.30000001</v>
+      </c>
+      <c r="D107" s="5">
+        <v>444238268.51999998</v>
+      </c>
+      <c r="E107" s="5">
+        <v>347204528.505</v>
+      </c>
+      <c r="F107" s="5">
+        <v>375889146.17900002</v>
+      </c>
+      <c r="G107" s="5">
+        <v>13988584.856000001</v>
+      </c>
+      <c r="H107" s="5">
+        <v>26225861.34</v>
+      </c>
+      <c r="I107" s="5">
+        <v>38347639.730999999</v>
+      </c>
+      <c r="J107" s="5">
+        <v>8640810.3310000002</v>
+      </c>
+      <c r="K107" s="5">
+        <v>5834564.2640000004</v>
+      </c>
+      <c r="L107" s="5">
+        <v>2806246.068</v>
+      </c>
+      <c r="M107" s="5">
+        <v>608194.23400000005</v>
+      </c>
+      <c r="N107" s="5">
+        <v>84017.093999999997</v>
+      </c>
+      <c r="O107" s="5">
+        <v>228017.45499999999</v>
+      </c>
+      <c r="P107" s="5">
+        <v>3726474.8509999998</v>
+      </c>
+      <c r="Q107" s="5">
+        <v>630689.103</v>
+      </c>
+      <c r="R107" s="5">
+        <v>1106885.7930000001</v>
+      </c>
+      <c r="S107" s="5">
+        <v>172974.65888888887</v>
+      </c>
+      <c r="T107" s="5">
+        <v>933911.13411111117</v>
+      </c>
+      <c r="U107" s="5">
+        <v>439193.87399999995</v>
+      </c>
+      <c r="V107" s="5">
+        <v>2180395.1839999999</v>
+      </c>
+      <c r="W107" s="5">
+        <v>7065.8490000000002</v>
+      </c>
+      <c r="X107" s="5">
+        <v>1549706.0809999998</v>
+      </c>
+      <c r="Y107" s="5">
+        <v>1556771.93</v>
+      </c>
+      <c r="Z107" s="5">
+        <v>478594.14899999998</v>
+      </c>
+      <c r="AA107" s="5">
+        <v>1078177.781</v>
+      </c>
+      <c r="AB107" s="5">
+        <v>-3328424.6710000001</v>
+      </c>
+      <c r="AC107">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="AD107" s="11">
+        <v>0.1241</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="AF107" s="10">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="AG107" s="10">
+        <v>0.11571702134540744</v>
+      </c>
+      <c r="AH107" s="10">
+        <v>0.82879999999999998</v>
+      </c>
+      <c r="AI107" s="10">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="AJ107" s="10">
+        <v>3.8600000000000002E-2</v>
+      </c>
+      <c r="AK107" s="10">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="AL107" s="13">
+        <v>146.22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" s="5">
+        <v>266909034</v>
+      </c>
+      <c r="D108" s="5">
+        <v>408259152</v>
+      </c>
+      <c r="E108" s="5">
+        <v>334459929</v>
+      </c>
+      <c r="F108" s="5">
+        <v>342186329</v>
+      </c>
+      <c r="G108" s="5">
+        <v>7000000</v>
+      </c>
+      <c r="H108" s="5">
+        <v>23187155</v>
+      </c>
+      <c r="I108" s="5">
+        <v>41956116</v>
+      </c>
+      <c r="J108" s="5">
+        <v>7722828</v>
+      </c>
+      <c r="K108" s="5">
+        <v>5050093</v>
+      </c>
+      <c r="L108" s="5">
+        <v>2672735</v>
+      </c>
+      <c r="M108" s="5">
+        <v>487289</v>
+      </c>
+      <c r="N108" s="5">
+        <v>72994</v>
+      </c>
+      <c r="O108" s="5">
+        <v>178938</v>
+      </c>
+      <c r="P108" s="5">
+        <v>3411957</v>
+      </c>
+      <c r="Q108" s="5">
+        <v>1167991</v>
+      </c>
+      <c r="R108" s="5">
+        <v>1035174</v>
+      </c>
+      <c r="S108" s="5">
+        <v>85336.444444444438</v>
+      </c>
+      <c r="T108" s="5">
+        <v>949837.5555555555</v>
+      </c>
+      <c r="U108" s="5">
+        <v>451854</v>
+      </c>
+      <c r="V108" s="5">
+        <v>1924929</v>
+      </c>
+      <c r="W108" s="5">
+        <v>11091</v>
+      </c>
+      <c r="X108" s="5">
+        <v>756938</v>
+      </c>
+      <c r="Y108" s="5">
+        <v>768028</v>
+      </c>
+      <c r="Z108" s="5">
+        <v>231670</v>
+      </c>
+      <c r="AA108" s="5">
+        <v>536359</v>
+      </c>
+      <c r="AB108" s="5">
+        <v>1490950</v>
+      </c>
+      <c r="AC108">
+        <v>9.25</v>
+      </c>
+      <c r="AD108" s="11">
+        <v>0.12709999999999999</v>
+      </c>
+      <c r="AE108" s="1">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="AF108" s="10">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="AG108" s="10">
+        <v>5.1797406730319545E-2</v>
+      </c>
+      <c r="AH108" s="10">
+        <v>0.77159999999999995</v>
+      </c>
+      <c r="AI108" s="10">
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="AJ108" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AK108" s="10">
+        <v>0.32779999999999998</v>
+      </c>
+      <c r="AL108" s="13">
+        <v>180.95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C109" s="5">
+        <v>138818671.847</v>
+      </c>
+      <c r="D109" s="5">
+        <v>199062433.405</v>
+      </c>
+      <c r="E109" s="5">
+        <v>167784625.89500001</v>
+      </c>
+      <c r="F109" s="5">
+        <v>169683149.303</v>
+      </c>
+      <c r="G109" s="5">
+        <v>5372774.2070000004</v>
+      </c>
+      <c r="H109" s="5">
+        <v>11621357.273</v>
+      </c>
+      <c r="I109" s="5">
+        <v>17799118.497000001</v>
+      </c>
+      <c r="J109" s="5">
+        <v>3901944.321</v>
+      </c>
+      <c r="K109" s="5">
+        <v>2419250.0129999998</v>
+      </c>
+      <c r="L109" s="5">
+        <v>1482694.308</v>
+      </c>
+      <c r="M109" s="5">
+        <v>370642.69099999999</v>
+      </c>
+      <c r="N109" s="5">
+        <v>48812.534</v>
+      </c>
+      <c r="O109" s="5">
+        <v>28730.448</v>
+      </c>
+      <c r="P109" s="5">
+        <v>1930879.9809999999</v>
+      </c>
+      <c r="Q109" s="5">
+        <v>-43416.377999999997</v>
+      </c>
+      <c r="R109" s="5">
+        <v>681302.78799999994</v>
+      </c>
+      <c r="S109" s="5">
+        <v>79883.062999999995</v>
+      </c>
+      <c r="T109" s="5">
+        <v>601419.72499999998</v>
+      </c>
+      <c r="U109" s="5">
+        <v>293107.78100000002</v>
+      </c>
+      <c r="V109" s="5">
+        <v>956469.41200000001</v>
+      </c>
+      <c r="W109" s="5">
+        <v>-280938.22400000005</v>
+      </c>
+      <c r="X109" s="5">
+        <v>999885.79</v>
+      </c>
+      <c r="Y109" s="5">
+        <v>718947.56700000004</v>
+      </c>
+      <c r="Z109" s="5">
+        <v>215684.27</v>
+      </c>
+      <c r="AA109" s="5">
+        <v>503263.29700000002</v>
+      </c>
+      <c r="AB109" s="5">
+        <v>1065681.6950000001</v>
+      </c>
+      <c r="AC109">
+        <v>17.32</v>
+      </c>
+      <c r="AD109" s="11">
+        <v>0.1343</v>
+      </c>
+      <c r="AE109" s="1">
+        <v>3.15E-2</v>
+      </c>
+      <c r="AF109" s="10">
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="AG109" s="10">
+        <v>0.11638934095609217</v>
+      </c>
+      <c r="AH109" s="10">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="AI109" s="10">
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="AJ109" s="10">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="AK109" s="10">
+        <v>0.2949</v>
+      </c>
+      <c r="AL109" s="13">
+        <v>153.16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C110" s="5">
+        <v>394906444</v>
+      </c>
+      <c r="D110" s="5">
+        <v>584191456</v>
+      </c>
+      <c r="E110" s="5">
+        <v>479455141</v>
+      </c>
+      <c r="F110" s="5">
+        <v>487554365</v>
+      </c>
+      <c r="G110" s="5">
+        <v>9418464</v>
+      </c>
+      <c r="H110" s="5">
+        <v>27056997</v>
+      </c>
+      <c r="I110" s="5">
+        <v>62090846</v>
+      </c>
+      <c r="J110" s="5">
+        <v>10819990</v>
+      </c>
+      <c r="K110" s="5">
+        <v>6679705</v>
+      </c>
+      <c r="L110" s="5">
+        <v>4140285</v>
+      </c>
+      <c r="M110" s="5">
+        <v>751484</v>
+      </c>
+      <c r="N110" s="5">
+        <v>173272</v>
+      </c>
+      <c r="O110" s="5">
+        <v>263790</v>
+      </c>
+      <c r="P110" s="5">
+        <v>5328830</v>
+      </c>
+      <c r="Q110" s="5">
+        <v>457727</v>
+      </c>
+      <c r="R110" s="5">
+        <v>1429834</v>
+      </c>
+      <c r="S110" s="5">
+        <v>315131.77777777775</v>
+      </c>
+      <c r="T110" s="5">
+        <v>1114702.2222222222</v>
+      </c>
+      <c r="U110" s="5">
+        <v>547810</v>
+      </c>
+      <c r="V110" s="5">
+        <v>3351186</v>
+      </c>
+      <c r="W110" s="5">
+        <v>-57274</v>
+      </c>
+      <c r="X110" s="5">
+        <v>2893459</v>
+      </c>
+      <c r="Y110" s="5">
+        <v>2836186</v>
+      </c>
+      <c r="Z110" s="5">
+        <v>779595</v>
+      </c>
+      <c r="AA110" s="5">
+        <v>2056590</v>
+      </c>
+      <c r="AB110" s="5">
+        <v>4981236</v>
+      </c>
+      <c r="AC110">
+        <v>29.83</v>
+      </c>
+      <c r="AD110" s="11">
+        <v>0.12640000000000001</v>
+      </c>
+      <c r="AE110" s="1">
+        <v>4.24E-2</v>
+      </c>
+      <c r="AF110" s="10">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="AG110" s="10">
+        <v>0.13702776628063817</v>
+      </c>
+      <c r="AH110" s="10">
+        <v>0.81710000000000005</v>
+      </c>
+      <c r="AI110" s="10">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="AJ110" s="10">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="AK110" s="10">
+        <v>0.27960000000000002</v>
+      </c>
+      <c r="AL110" s="13">
+        <v>229.48</v>
+      </c>
+    </row>
+    <row r="111" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C111" s="5">
+        <v>209708452.42000002</v>
+      </c>
+      <c r="D111" s="5">
+        <v>344435838.977</v>
+      </c>
+      <c r="E111" s="5">
+        <v>286257070.75800002</v>
+      </c>
+      <c r="F111" s="5">
+        <v>287143188.68200004</v>
+      </c>
+      <c r="G111" s="5">
+        <v>3495098.983</v>
+      </c>
+      <c r="H111" s="5">
+        <v>14694022.927999999</v>
+      </c>
+      <c r="I111" s="5">
+        <v>38897010.359999999</v>
+      </c>
+      <c r="J111" s="5">
+        <v>5866995.1830000002</v>
+      </c>
+      <c r="K111" s="5">
+        <v>3658742.8139999998</v>
+      </c>
+      <c r="L111" s="5">
+        <v>2208252.3679999998</v>
+      </c>
+      <c r="M111" s="5">
+        <v>295327.967</v>
+      </c>
+      <c r="N111" s="5">
+        <v>52439.546000000002</v>
+      </c>
+      <c r="O111" s="5">
+        <v>91391.683000000005</v>
+      </c>
+      <c r="P111" s="5">
+        <v>2647411.5639999998</v>
+      </c>
+      <c r="Q111" s="5">
+        <v>688492.31900000002</v>
+      </c>
+      <c r="R111" s="5">
+        <v>948281.32799999998</v>
+      </c>
+      <c r="S111" s="5">
+        <v>76727.253666666671</v>
+      </c>
+      <c r="T111" s="5">
+        <v>871554.07433333329</v>
+      </c>
+      <c r="U111" s="5">
+        <v>320110.12100000004</v>
+      </c>
+      <c r="V111" s="5">
+        <v>1379020.1149999998</v>
+      </c>
+      <c r="W111" s="5">
+        <v>17.486999999999998</v>
+      </c>
+      <c r="X111" s="5">
+        <v>690527.79599999974</v>
+      </c>
+      <c r="Y111" s="5">
+        <v>690545.28300000005</v>
+      </c>
+      <c r="Z111" s="5">
+        <v>88346.983999999997</v>
+      </c>
+      <c r="AA111" s="5">
+        <v>602198.30000000005</v>
+      </c>
+      <c r="AB111" s="5">
+        <v>947905.52599999995</v>
+      </c>
+      <c r="AC111">
+        <v>16.39</v>
+      </c>
+      <c r="AD111" s="11">
+        <v>0.1348</v>
+      </c>
+      <c r="AE111" s="1">
+        <v>3.95E-2</v>
+      </c>
+      <c r="AF111" s="10">
+        <v>4.6100000000000002E-2</v>
+      </c>
+      <c r="AG111" s="10">
+        <v>6.2901293162789848E-2</v>
+      </c>
+      <c r="AH111" s="10">
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="AI111" s="10">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="AJ111" s="10">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="AK111" s="10">
+        <v>0.34470000000000001</v>
+      </c>
+      <c r="AL111" s="13">
+        <v>264.70999999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C112" s="5">
+        <v>336771407</v>
+      </c>
+      <c r="D112" s="5">
+        <v>524546337</v>
+      </c>
+      <c r="E112" s="5">
+        <v>433327967</v>
+      </c>
+      <c r="F112" s="5">
+        <v>436932332</v>
+      </c>
+      <c r="G112" s="5">
+        <v>10040000</v>
+      </c>
+      <c r="H112" s="5">
+        <v>34128595</v>
+      </c>
+      <c r="I112" s="5">
+        <v>62909558</v>
+      </c>
+      <c r="J112" s="5">
+        <v>9828633</v>
+      </c>
+      <c r="K112" s="5">
+        <v>5951867</v>
+      </c>
+      <c r="L112" s="5">
+        <v>3876765</v>
+      </c>
+      <c r="M112" s="5">
+        <v>514294</v>
+      </c>
+      <c r="N112" s="5">
+        <v>112522</v>
+      </c>
+      <c r="O112" s="5">
+        <v>166942</v>
+      </c>
+      <c r="P112" s="5">
+        <v>4670532</v>
+      </c>
+      <c r="Q112" s="5">
+        <v>975163</v>
+      </c>
+      <c r="R112" s="5">
+        <v>996505</v>
+      </c>
+      <c r="S112" s="5">
+        <v>232590.88888888888</v>
+      </c>
+      <c r="T112" s="5">
+        <v>763914.11111111112</v>
+      </c>
+      <c r="U112" s="5">
+        <v>604755</v>
+      </c>
+      <c r="V112" s="5">
+        <v>3069272</v>
+      </c>
+      <c r="W112" s="5">
+        <v>-782</v>
+      </c>
+      <c r="X112" s="5">
+        <v>2094109</v>
+      </c>
+      <c r="Y112" s="5">
+        <v>2093318</v>
+      </c>
+      <c r="Z112" s="5">
+        <v>629243</v>
+      </c>
+      <c r="AA112" s="5">
+        <v>1464075</v>
+      </c>
+      <c r="AB112" s="5">
+        <v>-2510526</v>
+      </c>
+      <c r="AC112">
+        <v>17.16</v>
+      </c>
+      <c r="AD112" s="11">
+        <v>0.13370000000000001</v>
+      </c>
+      <c r="AE112" s="1">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="AF112" s="10">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="AG112" s="10">
+        <v>9.5308877301851461E-2</v>
+      </c>
+      <c r="AH112" s="10">
+        <v>0.78359999999999996</v>
+      </c>
+      <c r="AI112" s="10">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="AJ112" s="10">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="AK112" s="10">
+        <v>0.33279999999999998</v>
+      </c>
+      <c r="AL112" s="13">
+        <v>184.33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C113" s="5">
+        <v>134160185.65800001</v>
+      </c>
+      <c r="D113" s="5">
+        <v>215567096.87099999</v>
+      </c>
+      <c r="E113" s="5">
+        <v>181286842.743</v>
+      </c>
+      <c r="F113" s="5">
+        <v>182380817.46900001</v>
+      </c>
+      <c r="G113" s="5">
+        <v>5843965.7690000003</v>
+      </c>
+      <c r="H113" s="5">
+        <v>10500152.282</v>
+      </c>
+      <c r="I113" s="5">
+        <v>20313704.388</v>
+      </c>
+      <c r="J113" s="5">
+        <v>4141207.3530000001</v>
+      </c>
+      <c r="K113" s="5">
+        <v>2792847.8930000002</v>
+      </c>
+      <c r="L113" s="5">
+        <v>1348359.46</v>
+      </c>
+      <c r="M113" s="5">
+        <v>277284.09899999999</v>
+      </c>
+      <c r="N113" s="5">
+        <v>51206.86</v>
+      </c>
+      <c r="O113" s="5">
+        <v>12903.145</v>
+      </c>
+      <c r="P113" s="5">
+        <v>1689752.564</v>
+      </c>
+      <c r="Q113" s="5">
+        <v>-277615.89199999999</v>
+      </c>
+      <c r="R113" s="5">
+        <v>495227.42700000003</v>
+      </c>
+      <c r="S113" s="5">
+        <v>134872.58155555555</v>
+      </c>
+      <c r="T113" s="5">
+        <v>360354.84544444445</v>
+      </c>
+      <c r="U113" s="5">
+        <v>259126.38699999999</v>
+      </c>
+      <c r="V113" s="5">
+        <v>935398.75000000012</v>
+      </c>
+      <c r="W113" s="5">
+        <v>838.59299999999996</v>
+      </c>
+      <c r="X113" s="5">
+        <v>1213014.642</v>
+      </c>
+      <c r="Y113" s="5">
+        <v>1213853.2339999999</v>
+      </c>
+      <c r="Z113" s="5">
+        <v>399202.04</v>
+      </c>
+      <c r="AA113" s="5">
+        <v>814651.19299999997</v>
+      </c>
+      <c r="AB113" s="5">
+        <v>1869081.3130000001</v>
+      </c>
+      <c r="AC113">
+        <v>31.03</v>
+      </c>
+      <c r="AD113" s="11">
+        <v>0.13009999999999999</v>
+      </c>
+      <c r="AE113" s="1">
+        <v>1.84E-2</v>
+      </c>
+      <c r="AF113" s="10">
+        <v>5.9799999999999999E-2</v>
+      </c>
+      <c r="AG113" s="10">
+        <v>0.16711605119553088</v>
+      </c>
+      <c r="AH113" s="10">
+        <v>0.72650000000000003</v>
+      </c>
+      <c r="AI113" s="10">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AJ113" s="10">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="AK113" s="10">
+        <v>0.37130000000000002</v>
+      </c>
+      <c r="AL113" s="13">
+        <v>193.46</v>
+      </c>
+    </row>
+    <row r="114" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C114" s="5">
+        <v>268121554.00600001</v>
+      </c>
+      <c r="D114" s="5">
+        <v>393273898.29100001</v>
+      </c>
+      <c r="E114" s="5">
+        <v>336835268.73000002</v>
+      </c>
+      <c r="F114" s="5">
+        <v>344852858.12900001</v>
+      </c>
+      <c r="G114" s="5">
+        <v>10738530.92</v>
+      </c>
+      <c r="H114" s="5">
+        <v>14917566.922</v>
+      </c>
+      <c r="I114" s="5">
+        <v>30400955.032000002</v>
+      </c>
+      <c r="J114" s="5">
+        <v>8491519.2420000006</v>
+      </c>
+      <c r="K114" s="5">
+        <v>5938931.392</v>
+      </c>
+      <c r="L114" s="5">
+        <v>2552587.85</v>
+      </c>
+      <c r="M114" s="5">
+        <v>343749.52899999998</v>
+      </c>
+      <c r="N114" s="5">
+        <v>25857.484</v>
+      </c>
+      <c r="O114" s="5">
+        <v>148420.71400000001</v>
+      </c>
+      <c r="P114" s="5">
+        <v>3070615.577</v>
+      </c>
+      <c r="Q114" s="5">
+        <v>1164336.942</v>
+      </c>
+      <c r="R114" s="5">
+        <v>989481.33299999998</v>
+      </c>
+      <c r="S114" s="5">
+        <v>17543.918999999998</v>
+      </c>
+      <c r="T114" s="5">
+        <v>971937.41399999999</v>
+      </c>
+      <c r="U114" s="5">
+        <v>742931.37899999996</v>
+      </c>
+      <c r="V114" s="5">
+        <v>1338202.865</v>
+      </c>
+      <c r="W114" s="5">
+        <v>-15970.651</v>
+      </c>
+      <c r="X114" s="5">
+        <v>173865.92299999995</v>
+      </c>
+      <c r="Y114" s="5">
+        <v>157895.27100000001</v>
+      </c>
+      <c r="Z114" s="5">
+        <v>47368.571000000004</v>
+      </c>
+      <c r="AA114" s="5">
+        <v>110526.69</v>
+      </c>
+      <c r="AB114" s="5">
+        <v>-2214087.5580000002</v>
+      </c>
+      <c r="AC114">
+        <v>2.91</v>
+      </c>
+      <c r="AD114" s="11">
+        <v>0.1172</v>
+      </c>
+      <c r="AE114" s="1">
+        <v>4.24E-2</v>
+      </c>
+      <c r="AF114" s="10">
+        <v>6.3E-2</v>
+      </c>
+      <c r="AG114" s="10">
+        <v>1.4595592872055398E-2</v>
+      </c>
+      <c r="AH114" s="10">
+        <v>0.79139999999999999</v>
+      </c>
+      <c r="AI114" s="10">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="AJ114" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AK114" s="10">
+        <v>0.28179999999999999</v>
+      </c>
+      <c r="AL114" s="13">
+        <v>203.79</v>
+      </c>
+    </row>
+    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C115" s="5">
+        <v>214998636</v>
+      </c>
+      <c r="D115" s="5">
+        <v>320095967</v>
+      </c>
+      <c r="E115" s="5">
+        <v>246558478</v>
+      </c>
+      <c r="F115" s="5">
+        <v>249100259</v>
+      </c>
+      <c r="G115" s="5">
+        <v>12150824</v>
+      </c>
+      <c r="H115" s="5">
+        <v>18366706</v>
+      </c>
+      <c r="I115" s="5">
+        <v>30296562</v>
+      </c>
+      <c r="J115" s="5">
+        <v>5910403</v>
+      </c>
+      <c r="K115" s="5">
+        <v>3912469</v>
+      </c>
+      <c r="L115" s="5">
+        <v>1997934</v>
+      </c>
+      <c r="M115" s="5">
+        <v>623684</v>
+      </c>
+      <c r="N115" s="5">
+        <v>95321</v>
+      </c>
+      <c r="O115" s="5">
+        <v>70533</v>
+      </c>
+      <c r="P115" s="5">
+        <v>2787473</v>
+      </c>
+      <c r="Q115" s="5">
+        <v>-37039</v>
+      </c>
+      <c r="R115" s="5">
+        <v>739414</v>
+      </c>
+      <c r="S115" s="5">
+        <v>181929.44444444444</v>
+      </c>
+      <c r="T115" s="5">
+        <v>557484.5555555555</v>
+      </c>
+      <c r="U115" s="5">
+        <v>336418</v>
+      </c>
+      <c r="V115" s="5">
+        <v>1711641</v>
+      </c>
+      <c r="W115" s="5">
+        <v>-111317</v>
+      </c>
+      <c r="X115" s="5">
+        <v>1748680</v>
+      </c>
+      <c r="Y115" s="5">
+        <v>1637365</v>
+      </c>
+      <c r="Z115" s="5">
+        <v>491761</v>
+      </c>
+      <c r="AA115" s="5">
+        <v>1145603</v>
+      </c>
+      <c r="AB115" s="5">
+        <v>1066762</v>
+      </c>
+      <c r="AC115">
+        <v>24.95</v>
+      </c>
+      <c r="AD115" s="11">
+        <v>0.129</v>
+      </c>
+      <c r="AE115" s="1">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="AF115" s="10">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="AG115" s="10">
+        <v>0.15719592621292494</v>
+      </c>
+      <c r="AH115" s="10">
+        <v>0.81789999999999996</v>
+      </c>
+      <c r="AI115" s="10">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="AJ115" s="10">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="AK115" s="10">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="AL115" s="13">
+        <v>164.95</v>
+      </c>
+    </row>
+    <row r="116" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C116" s="5">
+        <v>231636805</v>
+      </c>
+      <c r="D116" s="5">
+        <v>369492058</v>
+      </c>
+      <c r="E116" s="5">
+        <v>304038962</v>
+      </c>
+      <c r="F116" s="5">
+        <v>309077955</v>
+      </c>
+      <c r="G116" s="5">
+        <v>7840592</v>
+      </c>
+      <c r="H116" s="5">
+        <v>23542490</v>
+      </c>
+      <c r="I116" s="5">
+        <v>37650846</v>
+      </c>
+      <c r="J116" s="5">
+        <v>7033229</v>
+      </c>
+      <c r="K116" s="5">
+        <v>4404614</v>
+      </c>
+      <c r="L116" s="5">
+        <v>2628615</v>
+      </c>
+      <c r="M116" s="5">
+        <v>613295</v>
+      </c>
+      <c r="N116" s="5">
+        <v>172730</v>
+      </c>
+      <c r="O116" s="5">
+        <v>55690</v>
+      </c>
+      <c r="P116" s="5">
+        <v>3470329</v>
+      </c>
+      <c r="Q116" s="5">
+        <v>384170</v>
+      </c>
+      <c r="R116" s="5">
+        <v>1088412</v>
+      </c>
+      <c r="S116" s="5">
+        <v>155922.77777777778</v>
+      </c>
+      <c r="T116" s="5">
+        <v>932489.22222222225</v>
+      </c>
+      <c r="U116" s="5">
+        <v>593766</v>
+      </c>
+      <c r="V116" s="5">
+        <v>1788151</v>
+      </c>
+      <c r="W116" s="5">
+        <v>-676</v>
+      </c>
+      <c r="X116" s="5">
+        <v>1403981</v>
+      </c>
+      <c r="Y116" s="5">
+        <v>1403305</v>
+      </c>
+      <c r="Z116" s="5">
+        <v>362648</v>
+      </c>
+      <c r="AA116" s="5">
+        <v>1040657</v>
+      </c>
+      <c r="AB116" s="5">
+        <v>34715</v>
+      </c>
+      <c r="AC116">
+        <v>17.68</v>
+      </c>
+      <c r="AD116" s="11">
+        <v>0.13869999999999999</v>
+      </c>
+      <c r="AE116" s="1">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="AF116" s="10">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="AG116" s="10">
+        <v>0.11370135237488121</v>
+      </c>
+      <c r="AH116" s="10">
+        <v>0.74729999999999996</v>
+      </c>
+      <c r="AI116" s="10">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="AJ116" s="10">
+        <v>3.95E-2</v>
+      </c>
+      <c r="AK116" s="10">
+        <v>0.34560000000000002</v>
+      </c>
+      <c r="AL116" s="13">
+        <v>159.93</v>
+      </c>
+    </row>
+    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C117" s="5">
+        <v>198469404.11900002</v>
+      </c>
+      <c r="D117" s="5">
+        <v>276301921.11900002</v>
+      </c>
+      <c r="E117" s="5">
+        <v>221813662.794</v>
+      </c>
+      <c r="F117" s="5">
+        <v>228155975.19400001</v>
+      </c>
+      <c r="G117" s="5">
+        <v>9159434.7080000006</v>
+      </c>
+      <c r="H117" s="5">
+        <v>19402575.715999998</v>
+      </c>
+      <c r="I117" s="5">
+        <v>32229431.675999999</v>
+      </c>
+      <c r="J117" s="5">
+        <v>6262839.392</v>
+      </c>
+      <c r="K117" s="5">
+        <v>3930976.8509999998</v>
+      </c>
+      <c r="L117" s="5">
+        <v>2331862.5410000002</v>
+      </c>
+      <c r="M117" s="5">
+        <v>562127.43099999998</v>
+      </c>
+      <c r="N117" s="5">
+        <v>46358.218000000001</v>
+      </c>
+      <c r="O117" s="5">
+        <v>173259.43599999999</v>
+      </c>
+      <c r="P117" s="5">
+        <v>3113607.6269999999</v>
+      </c>
+      <c r="Q117" s="5">
+        <v>410455.97899999999</v>
+      </c>
+      <c r="R117" s="5">
+        <v>659909.36899999995</v>
+      </c>
+      <c r="S117" s="5">
+        <v>203146.4776666667</v>
+      </c>
+      <c r="T117" s="5">
+        <v>456762.89133333322</v>
+      </c>
+      <c r="U117" s="5">
+        <v>214923.98</v>
+      </c>
+      <c r="V117" s="5">
+        <v>2238774.2779999999</v>
+      </c>
+      <c r="W117" s="5">
+        <v>0</v>
+      </c>
+      <c r="X117" s="5">
+        <v>1828318.2989999999</v>
+      </c>
+      <c r="Y117" s="5">
+        <v>1828318.2990000001</v>
+      </c>
+      <c r="Z117" s="5">
+        <v>541531.1</v>
+      </c>
+      <c r="AA117" s="5">
+        <v>1286787.199</v>
+      </c>
+      <c r="AB117" s="5">
+        <v>2730919.17</v>
+      </c>
+      <c r="AC117">
+        <v>26.53</v>
+      </c>
+      <c r="AD117" s="11">
+        <v>0.12470000000000001</v>
+      </c>
+      <c r="AE117" s="1">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="AF117" s="10">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="AG117" s="10">
+        <v>0.16634482549886553</v>
+      </c>
+      <c r="AH117" s="10">
+        <v>0.8538</v>
+      </c>
+      <c r="AI117" s="10">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AJ117" s="10">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="AK117" s="10">
+        <v>0.26889999999999997</v>
+      </c>
+      <c r="AL117" s="13">
+        <v>166.11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C118" s="5">
+        <v>267645308.789</v>
+      </c>
+      <c r="D118" s="5">
+        <v>503800724.62800002</v>
+      </c>
+      <c r="E118" s="5">
+        <v>415309545.55299997</v>
+      </c>
+      <c r="F118" s="5">
+        <v>417592007.46799999</v>
+      </c>
+      <c r="G118" s="5">
+        <v>2554726.0260000001</v>
+      </c>
+      <c r="H118" s="5">
+        <v>15637377.055</v>
+      </c>
+      <c r="I118" s="5">
+        <v>53152825.071000002</v>
+      </c>
+      <c r="J118" s="5">
+        <v>6826730.7029999997</v>
+      </c>
+      <c r="K118" s="5">
+        <v>4652247.3339999998</v>
+      </c>
+      <c r="L118" s="5">
+        <v>2174483.3689999999</v>
+      </c>
+      <c r="M118" s="5">
+        <v>298874.65899999999</v>
+      </c>
+      <c r="N118" s="5">
+        <v>-10862.94</v>
+      </c>
+      <c r="O118" s="5">
+        <v>103951.944</v>
+      </c>
+      <c r="P118" s="5">
+        <v>2566446.0320000001</v>
+      </c>
+      <c r="Q118" s="5">
+        <v>743868.36600000004</v>
+      </c>
+      <c r="R118" s="5">
+        <v>1111742.8130000001</v>
+      </c>
+      <c r="S118" s="5">
+        <v>24019.477666666669</v>
+      </c>
+      <c r="T118" s="5">
+        <v>1087723.3353333334</v>
+      </c>
+      <c r="U118" s="5">
+        <v>497112.01</v>
+      </c>
+      <c r="V118" s="5">
+        <v>957591.20900000003</v>
+      </c>
+      <c r="W118" s="5">
+        <v>2452.4560000000001</v>
+      </c>
+      <c r="X118" s="5">
+        <v>213722.84299999999</v>
+      </c>
+      <c r="Y118" s="5">
+        <v>216175.299</v>
+      </c>
+      <c r="Z118" s="5">
+        <v>64872.370999999999</v>
+      </c>
+      <c r="AA118" s="5">
+        <v>151302.92800000001</v>
+      </c>
+      <c r="AB118" s="5">
+        <v>224664.109</v>
+      </c>
+      <c r="AC118">
+        <v>3.87</v>
+      </c>
+      <c r="AD118" s="11">
+        <v>0.12570000000000001</v>
+      </c>
+      <c r="AE118" s="1">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="AF118" s="10">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="AG118" s="10">
+        <v>1.1418760962508157E-2</v>
+      </c>
+      <c r="AH118" s="10">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="AI118" s="10">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="AJ118" s="10">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="AK118" s="10">
+        <v>0.40939999999999999</v>
+      </c>
+      <c r="AL118" s="13">
+        <v>339.91</v>
+      </c>
+    </row>
+    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C119" s="5">
+        <v>167175295.734</v>
+      </c>
+      <c r="D119" s="5">
+        <v>236381044.33700001</v>
+      </c>
+      <c r="E119" s="5">
+        <v>199847454.458</v>
+      </c>
+      <c r="F119" s="5">
+        <v>201533251.192</v>
+      </c>
+      <c r="G119" s="5">
+        <v>9378478.5</v>
+      </c>
+      <c r="H119" s="5">
+        <v>13581525.414328</v>
+      </c>
+      <c r="I119" s="5">
+        <v>21317873.366999999</v>
+      </c>
+      <c r="J119" s="5">
+        <v>4455621.4689999996</v>
+      </c>
+      <c r="K119" s="5">
+        <v>3135606.716</v>
+      </c>
+      <c r="L119" s="5">
+        <v>1320014.753</v>
+      </c>
+      <c r="M119" s="5">
+        <v>264204.51799999998</v>
+      </c>
+      <c r="N119" s="5">
+        <v>188059.83300000001</v>
+      </c>
+      <c r="O119" s="5">
+        <v>120069.204</v>
+      </c>
+      <c r="P119" s="5">
+        <v>1892348.307</v>
+      </c>
+      <c r="Q119" s="5">
+        <v>563166.45700000005</v>
+      </c>
+      <c r="R119" s="5">
+        <v>470260.56300000002</v>
+      </c>
+      <c r="S119" s="5">
+        <v>63788.705444444444</v>
+      </c>
+      <c r="T119" s="5">
+        <v>406471.85755555559</v>
+      </c>
+      <c r="U119" s="5">
+        <v>286817.22499999998</v>
+      </c>
+      <c r="V119" s="5">
+        <v>1135270.5189999999</v>
+      </c>
+      <c r="W119" s="5">
+        <v>1994.2850000000001</v>
+      </c>
+      <c r="X119" s="5">
+        <v>572104.0619999998</v>
+      </c>
+      <c r="Y119" s="5">
+        <v>574098.34900000005</v>
+      </c>
+      <c r="Z119" s="5">
+        <v>174567.856</v>
+      </c>
+      <c r="AA119" s="5">
+        <v>399530.49300000002</v>
+      </c>
+      <c r="AB119" s="5">
+        <v>1713574.1340000001</v>
+      </c>
+      <c r="AC119">
+        <v>11.55</v>
+      </c>
+      <c r="AD119" s="11">
+        <v>0.1318</v>
+      </c>
+      <c r="AE119" s="1">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="AF119" s="10">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="AG119" s="10">
+        <v>7.6398115358666918E-2</v>
+      </c>
+      <c r="AH119" s="10">
+        <v>0.80169999999999997</v>
+      </c>
+      <c r="AI119" s="10">
+        <v>7.2400000000000006E-2</v>
+      </c>
+      <c r="AJ119" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AK119" s="10">
+        <v>0.28970000000000001</v>
+      </c>
+      <c r="AL119" s="13">
+        <v>156.96</v>
+      </c>
+    </row>
+    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C120" s="5">
+        <v>206456192.55500001</v>
+      </c>
+      <c r="D120" s="5">
+        <v>301429607.81699997</v>
+      </c>
+      <c r="E120" s="5">
+        <v>243298374.914</v>
+      </c>
+      <c r="F120" s="5">
+        <v>247871290.87600002</v>
+      </c>
+      <c r="G120" s="5">
+        <v>11662559</v>
+      </c>
+      <c r="H120" s="5">
+        <v>14089980.189999999</v>
+      </c>
+      <c r="I120" s="5">
+        <v>28422776.465999998</v>
+      </c>
+      <c r="J120" s="5">
+        <v>5865746.9100000001</v>
+      </c>
+      <c r="K120" s="5">
+        <v>3777459.639</v>
+      </c>
+      <c r="L120" s="5">
+        <v>2088287.2720000001</v>
+      </c>
+      <c r="M120" s="5">
+        <v>387898.87400000001</v>
+      </c>
+      <c r="N120" s="5">
+        <v>62212.67</v>
+      </c>
+      <c r="O120" s="5">
+        <v>153261.16699999999</v>
+      </c>
+      <c r="P120" s="5">
+        <v>2691659.983</v>
+      </c>
+      <c r="Q120" s="5">
+        <v>1005013.743</v>
+      </c>
+      <c r="R120" s="5">
+        <v>741553.24399999995</v>
+      </c>
+      <c r="S120" s="5">
+        <v>61024.159555555547</v>
+      </c>
+      <c r="T120" s="5">
+        <v>680529.08444444439</v>
+      </c>
+      <c r="U120" s="5">
+        <v>405533.3</v>
+      </c>
+      <c r="V120" s="5">
+        <v>1544573.439</v>
+      </c>
+      <c r="W120" s="5">
+        <v>9657.74</v>
+      </c>
+      <c r="X120" s="5">
+        <v>539559.696</v>
+      </c>
+      <c r="Y120" s="5">
+        <v>549217.43599999999</v>
+      </c>
+      <c r="Z120" s="5">
+        <v>167132.693</v>
+      </c>
+      <c r="AA120" s="5">
+        <v>382084.74300000002</v>
+      </c>
+      <c r="AB120" s="5">
+        <v>264389.37099999998</v>
+      </c>
+      <c r="AC120">
+        <v>10.64</v>
+      </c>
+      <c r="AD120" s="11">
+        <v>0.1152</v>
+      </c>
+      <c r="AE120" s="1">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="AF120" s="10">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="AG120" s="10">
+        <v>5.4504324896749987E-2</v>
+      </c>
+      <c r="AH120" s="10">
+        <v>0.8135</v>
+      </c>
+      <c r="AI120" s="10">
+        <v>7.5800000000000006E-2</v>
+      </c>
+      <c r="AJ120" s="10">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="AK120" s="10">
+        <v>0.27910000000000001</v>
+      </c>
+      <c r="AL120" s="13">
+        <v>201.72</v>
+      </c>
+    </row>
+    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C121" s="5">
+        <v>90111558</v>
+      </c>
+      <c r="D121" s="5">
+        <v>142701239</v>
+      </c>
+      <c r="E121" s="5">
+        <v>113529218</v>
+      </c>
+      <c r="F121" s="5">
+        <v>115611509</v>
+      </c>
+      <c r="G121" s="5">
+        <v>2462985</v>
+      </c>
+      <c r="H121" s="5">
+        <v>9429454</v>
+      </c>
+      <c r="I121" s="5">
+        <v>21417249</v>
+      </c>
+      <c r="J121" s="5">
+        <v>2197626</v>
+      </c>
+      <c r="K121" s="5">
+        <v>1028614</v>
+      </c>
+      <c r="L121" s="5">
+        <v>1169012</v>
+      </c>
+      <c r="M121" s="5">
+        <v>405128</v>
+      </c>
+      <c r="N121" s="5">
+        <v>162138</v>
+      </c>
+      <c r="O121" s="5">
+        <v>8855</v>
+      </c>
+      <c r="P121" s="5">
+        <v>1745132</v>
+      </c>
+      <c r="Q121" s="5">
+        <v>-57198</v>
+      </c>
+      <c r="R121" s="5">
+        <v>420497</v>
+      </c>
+      <c r="S121" s="5">
+        <v>136857.22222222222</v>
+      </c>
+      <c r="T121" s="5">
+        <v>283639.77777777775</v>
+      </c>
+      <c r="U121" s="5">
+        <v>150351</v>
+      </c>
+      <c r="V121" s="5">
+        <v>1174284</v>
+      </c>
+      <c r="W121" s="5">
+        <v>233</v>
+      </c>
+      <c r="X121" s="5">
+        <v>1231482</v>
+      </c>
+      <c r="Y121" s="5">
+        <v>1231715</v>
+      </c>
+      <c r="Z121" s="5">
+        <v>369515</v>
+      </c>
+      <c r="AA121" s="5">
+        <v>862201</v>
+      </c>
+      <c r="AB121" s="5">
+        <v>3231329</v>
+      </c>
+      <c r="AC121">
+        <v>36.57</v>
+      </c>
+      <c r="AD121" s="11">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AE121" s="1">
+        <v>1.95E-2</v>
+      </c>
+      <c r="AF121" s="10">
+        <v>3.49E-2</v>
+      </c>
+      <c r="AG121" s="10">
+        <v>0.16778379695342963</v>
+      </c>
+      <c r="AH121" s="10">
+        <v>0.76480000000000004</v>
+      </c>
+      <c r="AI121" s="10">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="AJ121" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AK121" s="10">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="AL121" s="13">
+        <v>227.13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>